--- a/data/financial_statements/sofp/TEL.xlsx
+++ b/data/financial_statements/sofp/TEL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,2497 +608,2548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>793000000</v>
+      </c>
+      <c r="C2">
         <v>1088000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>820000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>749000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>982000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1203000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1416000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1748000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1098000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>945000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>474000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>796000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>742000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>927000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>546000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>565000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>505000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>848000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>770000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>559000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>704000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1218000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>755000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>773000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>665000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>647000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>694000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1150000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2223000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3329000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>701000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>697000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>868000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2457000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1613000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1429000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1397000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1403000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1262000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1073000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>2910000000</v>
+      </c>
+      <c r="C3">
         <v>2865000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3132000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3068000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2844000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2928000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2985000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2921000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2640000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2377000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2146000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2461000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2338000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2320000000</v>
-      </c>
-      <c r="O3">
-        <v>2463000000</v>
       </c>
       <c r="P3">
         <v>2463000000</v>
       </c>
       <c r="Q3">
+        <v>2463000000</v>
+      </c>
+      <c r="R3">
         <v>2380000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2361000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2591000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2643000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2378000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2138000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2271000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>2244000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2034000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>2046000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2158000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2095000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1878000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>2120000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>2185000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2094000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>2349000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2057000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2503000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2402000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>2284000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>2323000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2257000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>2214000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2927000000</v>
+      </c>
+      <c r="C4">
         <v>2676000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3028000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2999000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2845000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2511000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2392000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2134000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2066000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1950000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2227000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2001000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2003000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1836000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1961000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1970000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1986000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1857000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1961000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2045000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1984000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1647000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1787000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1660000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1636000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1596000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1610000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1635000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1700000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1615000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1717000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1684000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1942000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1509000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1810000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1850000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1836000000</v>
-      </c>
-      <c r="AL4">
-        <v>1762000000</v>
       </c>
       <c r="AM4">
         <v>1762000000</v>
       </c>
       <c r="AN4">
+        <v>1762000000</v>
+      </c>
+      <c r="AO4">
         <v>1803000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>639000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>603000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>601000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>573000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>621000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>601000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>619000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>677000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>512000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>472000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>457000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>483000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>472000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>345000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1897000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1861000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2013000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>7318000000</v>
+      </c>
+      <c r="C6">
         <v>7268000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7583000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7417000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7244000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7263000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7394000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7422000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6481000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5784000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5319000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5715000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5566000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5554000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5422000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5446000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5378000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>6199000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>5941000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5960000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5733000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>5926000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5354000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5146000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4809000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4775000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4929000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>5414000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>6505000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>7885000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7736000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7612000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>6045000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8879000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>6873000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>6566000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>6358000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>6309000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>6018000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>5864000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>3781000000</v>
+      </c>
+      <c r="C7">
         <v>3567000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3712000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3817000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3827000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3778000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3723000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3662000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3768000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3650000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3598000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3558000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3659000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3574000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3636000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3596000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3550000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3497000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3633000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3676000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>3527000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3159000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>3165000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3046000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2956000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>3052000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2976000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2899000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2866000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2920000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2925000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2878000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>3118000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2920000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3154000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>3181000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>3164000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>3166000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>3071000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>3114000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>172000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>51000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>30000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>18000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>13000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>55000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>89000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>32000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9">
         <v>11000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>679000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>972000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>964000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>962000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>948000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>956000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1037000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1024000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1013000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>996000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1002000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>984000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>963000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>6868000000</v>
+      </c>
+      <c r="C10">
         <v>6546000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6707000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6904000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7012000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7139000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6917000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6890000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7000000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6817000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>6755000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6782000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7448000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>7336000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>7464000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>7222000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7296000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>7388000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>7314000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>7516000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>7478000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>7492000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>7306000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>7150000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>7163000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>7371000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>7043000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>6108000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>6119000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>6379000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>6438000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>6462000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>7468000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>4813000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>5527000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>5552000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>5565000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>5570000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>5548000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>5570000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>2591000000</v>
+      </c>
+      <c r="C11">
         <v>2498000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2478000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2466000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2513000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2499000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2224000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2204000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2198000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2178000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2286000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2382000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2360000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2776000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2845000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2607000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2580000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2144000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1672000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1631000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1615000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>2141000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2287000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>2280000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>2290000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>2111000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>2208000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>2458000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>2454000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>2144000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>2054000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2018000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>2092000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2047000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1997000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>2009000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2056000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>2146000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2198000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>2339000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>795000000</v>
+      </c>
+      <c r="C12">
         <v>903000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>868000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>847000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>813000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>783000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>800000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>789000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>819000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>813000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>882000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>930000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>943000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>454000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>381000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>391000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>384000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1158000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>453000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>464000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>458000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>685000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>408000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>434000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>397000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>299000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>333000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>283000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>307000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>297000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>326000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>325000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>474000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>456000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>296000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>307000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>304000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>268000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>271000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>290000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>14035000000</v>
+      </c>
+      <c r="C13">
         <v>13514000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>13765000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>14034000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>14165000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>14199000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>13664000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>13545000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13785000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>13458000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>13521000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>13652000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>14410000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>14140000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>14326000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>13816000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>13810000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>14187000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>13072000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>13287000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>13078000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>13477000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>13166000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>12910000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>12806000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>12833000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>12571000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>12427000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>12718000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>12704000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>12705000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>12631000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>14108000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>11273000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>11998000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>12062000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>12085000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>12152000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>12072000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>12276000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>21353000000</v>
+      </c>
+      <c r="C14">
         <v>20782000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>21348000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>21451000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>21409000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>21462000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>21058000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>20967000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>20266000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>19242000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>18840000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>19367000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>19976000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>19694000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>19748000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>19262000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>19188000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>20386000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>19013000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>19247000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>18811000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>19403000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>18520000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>18056000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>17615000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>17608000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>17500000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>17841000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>19223000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>20589000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>20441000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>20243000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>20153000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>20152000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>18871000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>18628000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>18443000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>18461000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>18090000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>18140000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>820000000</v>
+      </c>
+      <c r="C15">
         <v>914000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>822000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>610000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>484000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>503000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>505000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>919000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>685000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>694000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>691000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>603000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>561000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>570000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>602000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>612000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>585000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>963000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>714000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>675000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>688000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>710000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>878000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>331000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>1751000000</v>
+      </c>
+      <c r="C16">
         <v>1593000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1917000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1986000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1964000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1911000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1938000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1793000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1629000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1276000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1271000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1390000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1433000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1357000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1438000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1485000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1538000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1548000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1583000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1613000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1556000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1387000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1309000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1226000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1123000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1090000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1157000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1116000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1108000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1143000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1206000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1233000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1382000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1230000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1433000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1421000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1361000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1383000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1357000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1348000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>1849000000</v>
+      </c>
+      <c r="C17">
         <v>2125000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2319000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2450000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1826000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2242000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2219000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2327000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1769000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1720000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1765000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1966000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1410000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1613000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1654000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1770000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1348000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1711000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1625000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1729000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1264000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1613000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1623000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1701000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1189000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1437000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1692000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1719000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1545000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1749000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1660000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1715000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1436000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1594000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1683000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1983000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1589000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1762000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1842000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1732000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>1040000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>822000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>610000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>484000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>621000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>505000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>919000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>685000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>810000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>806000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>718000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>683000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>879000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1052000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>302000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>152000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>500000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>498000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>631000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>736000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>937000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>577000000</v>
-      </c>
-      <c r="AI18">
-        <v>625000000</v>
       </c>
       <c r="AJ18">
         <v>625000000</v>
       </c>
       <c r="AK18">
+        <v>625000000</v>
+      </c>
+      <c r="AL18">
         <v>383000000</v>
-      </c>
-      <c r="AL18">
-        <v>711000000</v>
       </c>
       <c r="AM18">
         <v>711000000</v>
       </c>
       <c r="AN18">
+        <v>711000000</v>
+      </c>
+      <c r="AO18">
         <v>715000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19">
         <v>124000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>147000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>127000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>62000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>129000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>149000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>208000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>160000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>110000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>113000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>185000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>179000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>96000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>121000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>176000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>119000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>58000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>76000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>68000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>93000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>106000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>1837000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2319000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2450000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1826000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1978000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2219000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2327000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1769000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1491000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1650000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1851000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1288000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>188000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>137000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>365000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>361000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>416000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>4420000000</v>
+      </c>
+      <c r="C21">
         <v>4632000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>5058000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5046000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>4274000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4656000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4662000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5039000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4083000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>3690000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3727000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>3959000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3404000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>3540000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3694000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3867000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3471000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>4410000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>4046000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>4164000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>3635000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3847000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>3872000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>3935000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>3513000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>3066000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>3311000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>3097000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>3266000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>3575000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>4041000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>4141000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>3876000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>3993000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>3860000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>4087000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>3409000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>3924000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>4003000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>3901000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>3398000000</v>
+      </c>
+      <c r="C22">
         <v>3292000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3380000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3441000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3519000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3589000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3629000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3602000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3516000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3452000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3395000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3752000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3412000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>3395000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3434000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3370000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>3382000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>3037000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>3294000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3335000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>3317000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>3634000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>3113000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>3073000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>2976000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>3739000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>3734000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>3732000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>3370000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>3386000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>3395000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>3390000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3286000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3281000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>2375000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>2370000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>2615000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>2303000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>2307000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>2315000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>728000000</v>
+      </c>
+      <c r="C23">
         <v>695000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1094000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1103000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1119000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1139000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1305000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1299000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1329000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1336000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1366000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1359000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1365000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1367000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1094000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1081000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1101000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1102000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1119000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1149000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1150000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1158000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1494000000</v>
-      </c>
-      <c r="X23">
-        <v>1474000000</v>
       </c>
       <c r="Y23">
         <v>1474000000</v>
       </c>
       <c r="Z23">
+        <v>1474000000</v>
+      </c>
+      <c r="AA23">
         <v>1502000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1334000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1315000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1307000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1327000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1192000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1199000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1257000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1280000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1125000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1140000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1150000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1155000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1293000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1312000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>228000000</v>
+      </c>
+      <c r="C24">
         <v>244000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>186000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>185000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>192000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>181000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>149000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>140000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>144000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>143000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>161000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>126000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>142000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>156000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>203000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>196000000</v>
-      </c>
-      <c r="Q24">
-        <v>207000000</v>
       </c>
       <c r="R24">
         <v>207000000</v>
       </c>
       <c r="S24">
+        <v>207000000</v>
+      </c>
+      <c r="T24">
         <v>227000000</v>
-      </c>
-      <c r="T24">
-        <v>238000000</v>
       </c>
       <c r="U24">
         <v>238000000</v>
       </c>
       <c r="V24">
+        <v>238000000</v>
+      </c>
+      <c r="W24">
         <v>236000000</v>
-      </c>
-      <c r="W24">
-        <v>197000000</v>
       </c>
       <c r="X24">
         <v>197000000</v>
       </c>
       <c r="Y24">
+        <v>197000000</v>
+      </c>
+      <c r="Z24">
         <v>194000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>207000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>326000000</v>
-      </c>
-      <c r="AB24">
-        <v>291000000</v>
       </c>
       <c r="AC24">
         <v>291000000</v>
       </c>
       <c r="AD24">
+        <v>291000000</v>
+      </c>
+      <c r="AE24">
         <v>329000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>299000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>300000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>304000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>229000000</v>
-      </c>
-      <c r="AI24">
-        <v>321000000</v>
       </c>
       <c r="AJ24">
         <v>321000000</v>
@@ -2996,469 +3161,484 @@
         <v>321000000</v>
       </c>
       <c r="AM24">
+        <v>321000000</v>
+      </c>
+      <c r="AN24">
         <v>304000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>448000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>104000000</v>
+      </c>
+      <c r="C25">
         <v>95000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>103000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>107000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>108000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>114000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>116000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>114000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>118000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>112000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1111000000</v>
+      </c>
+      <c r="C26">
         <v>1022000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1093000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1127000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1177000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1149000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1151000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1104000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1215000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1126000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1047000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1000000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1096000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>666000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>701000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>754000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>791000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>799000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>835000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>881000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>840000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>777000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>703000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>624000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>621000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>609000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>530000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>2000000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>2412000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>2387000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2379000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2218000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2260000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>2356000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>2342000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>2311000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2326000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>2372000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2295000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>2431000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>5569000000</v>
+      </c>
+      <c r="C27">
         <v>5348000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5856000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5963000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>6115000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>6172000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>6350000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>6259000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6322000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6169000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5969000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>6237000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>6015000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5584000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>5432000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>5401000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5481000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5145000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>5475000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>5603000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>5545000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>5805000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>5507000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>5368000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>5265000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>6057000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>5924000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>7338000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>7380000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>7429000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>7265000000</v>
-      </c>
-      <c r="AF27">
-        <v>7107000000</v>
       </c>
       <c r="AG27">
         <v>7107000000</v>
       </c>
       <c r="AH27">
+        <v>7107000000</v>
+      </c>
+      <c r="AI27">
         <v>7146000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>6163000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>6142000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>6412000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>6151000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>6199000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>6506000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>9989000000</v>
+      </c>
+      <c r="C28">
         <v>9980000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>10914000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>11009000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>10389000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>10828000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>11012000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>11298000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>10405000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>9859000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>9696000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>10196000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>9419000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>9124000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>9126000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>9268000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>8952000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>9555000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>9521000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>9767000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>9180000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>9652000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>9379000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>9303000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>8778000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>9123000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>9235000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>10435000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>10646000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>11004000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>11306000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>11248000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>10983000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>11139000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>10023000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>10229000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>9821000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>10075000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>10202000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>10407000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="X29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y29">
         <v>1147000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1729000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1801000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1786000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3765000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>4284000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>4359000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>4338000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>4625000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>5181000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>5231000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>5224000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>5623000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>6100000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>6136000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>6092000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>6416000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>146000000</v>
@@ -3467,7 +3647,7 @@
         <v>146000000</v>
       </c>
       <c r="D30">
-        <v>148000000</v>
+        <v>146000000</v>
       </c>
       <c r="E30">
         <v>148000000</v>
@@ -3479,7 +3659,7 @@
         <v>148000000</v>
       </c>
       <c r="H30">
-        <v>149000000</v>
+        <v>148000000</v>
       </c>
       <c r="I30">
         <v>149000000</v>
@@ -3491,7 +3671,7 @@
         <v>149000000</v>
       </c>
       <c r="L30">
-        <v>154000000</v>
+        <v>149000000</v>
       </c>
       <c r="M30">
         <v>154000000</v>
@@ -3503,7 +3683,7 @@
         <v>154000000</v>
       </c>
       <c r="P30">
-        <v>157000000</v>
+        <v>154000000</v>
       </c>
       <c r="Q30">
         <v>157000000</v>
@@ -3527,7 +3707,7 @@
         <v>157000000</v>
       </c>
       <c r="X30">
-        <v>168000000</v>
+        <v>157000000</v>
       </c>
       <c r="Y30">
         <v>168000000</v>
@@ -3539,7 +3719,7 @@
         <v>168000000</v>
       </c>
       <c r="AB30">
-        <v>182000000</v>
+        <v>168000000</v>
       </c>
       <c r="AC30">
         <v>182000000</v>
@@ -3551,7 +3731,7 @@
         <v>182000000</v>
       </c>
       <c r="AF30">
-        <v>184000000</v>
+        <v>182000000</v>
       </c>
       <c r="AG30">
         <v>184000000</v>
@@ -3563,7 +3743,7 @@
         <v>184000000</v>
       </c>
       <c r="AJ30">
-        <v>189000000</v>
+        <v>184000000</v>
       </c>
       <c r="AK30">
         <v>189000000</v>
@@ -3575,1104 +3755,1134 @@
         <v>189000000</v>
       </c>
       <c r="AN30">
+        <v>189000000</v>
+      </c>
+      <c r="AO30">
         <v>193000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>13200000000</v>
+      </c>
+      <c r="C31">
         <v>12832000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>12084000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>12160000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>12285000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>11709000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>10892000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>10541000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>10672000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>10348000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>10125000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>11122000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>12206000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>12256000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>11893000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>11710000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>11886000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>12114000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>10432000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>9957000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>10047000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>10175000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>9747000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>9661000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>9256000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>8682000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>8245000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>7406000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>7026000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>6673000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>5633000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>5324000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>4725000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>4253000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>3590000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3187000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>2825000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>2472000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>2085000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1750000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>1854000000</v>
+      </c>
+      <c r="C32">
         <v>1681000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1370000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1769000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1274000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1055000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>778000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>775000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>655000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>669000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>729000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1639000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1389000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1337000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1224000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1713000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1550000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1134000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>798000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>585000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>489000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>421000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>257000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>1639000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1618000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1624000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1559000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>3498000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2452000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>1256000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>651000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>728000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>703000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>644000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>513000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>924000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>825000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>720000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>556000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>766000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>11364000000</v>
+      </c>
+      <c r="C33">
         <v>10802000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>10434000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>10442000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>11020000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>10634000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>10046000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9669000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>9861000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>9383000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>9144000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>9171000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>10557000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>10570000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>10622000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>9994000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>10236000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>10831000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>9492000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>9480000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>9631000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>9751000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>9141000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>8753000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>8837000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>8485000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>8265000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>7406000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>8577000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>9585000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>9135000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>8995000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>9170000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>9013000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>8848000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>8399000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>8622000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>8386000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>7888000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>7733000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>11364000000</v>
+      </c>
+      <c r="C34">
         <v>10802000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>10434000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>10442000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>11020000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>10634000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>10046000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>9669000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>9861000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>9383000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>9144000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>9171000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>10557000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>10570000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>10622000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>9994000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>10236000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>10831000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>9492000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>9480000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>9631000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>9751000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>9141000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>8753000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>8837000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>8485000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>8265000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>7406000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>8577000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>9585000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>9135000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>8995000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>9170000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>9013000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>8848000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>8399000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>8622000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>8386000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>7888000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>7733000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>21353000000</v>
+      </c>
+      <c r="C35">
         <v>20782000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>21348000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>21451000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>21409000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>21462000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>21058000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>20967000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>20266000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>19242000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>18840000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>19367000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>19976000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>19694000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>19748000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>19262000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>19188000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>20386000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>19013000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>19247000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>18811000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>19403000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>18520000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>18056000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>17615000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>17608000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>17500000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>17841000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>19223000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>20589000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>20441000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>20243000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>20153000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>20152000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>18871000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>18628000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>18443000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>18461000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>18090000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>18140000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>316766000</v>
+      </c>
+      <c r="C36">
         <v>318081000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>325675000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>322819000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>326188000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>327038000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>328581000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>330433000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>331117000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>330658000</v>
-      </c>
-      <c r="K36">
-        <v>329992000</v>
       </c>
       <c r="L36">
         <v>329992000</v>
       </c>
       <c r="M36">
+        <v>329992000</v>
+      </c>
+      <c r="N36">
         <v>334430000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>335089000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>336410000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>337308000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>339342000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>344790000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>348411000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>350626000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>351390000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>351714000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>353689000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>355309000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>355501000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>355281000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>356403000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>357501000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>375694000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>393993000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>403883000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>407085000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>406932000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>407687000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>409637000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>409248000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>410701000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>411507000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>413970000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>416782000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>4496000000</v>
+      </c>
+      <c r="C37">
         <v>4256000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>3727000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>3538000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>4008000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>3495000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>3129000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2779000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>2861000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>2566000000</v>
-      </c>
-      <c r="K37">
-        <v>2389000000</v>
       </c>
       <c r="L37">
         <v>2389000000</v>
       </c>
       <c r="M37">
+        <v>2389000000</v>
+      </c>
+      <c r="N37">
         <v>3109000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>3234000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>3158000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>2772000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2940000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>3443000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2178000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1964000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>2153000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>2259000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>1835000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>1603000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>1674000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>1114000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>1222000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>1298000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>2458000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>3206000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>2697000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>2533000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>1702000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>4200000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>3321000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>2847000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>3057000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>2816000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>2340000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>2163000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>2605000000</v>
+      </c>
+      <c r="C38">
         <v>3244000000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>3382000000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>3302000000</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>3021000000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3007000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>2718000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2773000000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>3103000000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>3317000000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>3727000000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>3674000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>3353000000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>2468000000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>2888000000</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2805000000</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2877000000</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>2189000000</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2524000000</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>2776000000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>2613000000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>2416000000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>2358000000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>3179000000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>3363000000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>3092000000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>3342000000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>2734000000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>1647000000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>555000000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>3325000000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>3429000000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>3355000000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>1401000000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>1387000000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>1566000000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>1601000000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>1611000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>1756000000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>1957000000</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>3398000000</v>
+      </c>
+      <c r="C39">
         <v>4332000000</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>4202000000</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>4051000000</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>4003000000</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4210000000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>4134000000</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>4521000000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>4201000000</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>4262000000</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>4201000000</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>4470000000</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>4095000000</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>3395000000</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>3434000000</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>3370000000</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>3382000000</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>3037000000</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>3294000000</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>3335000000</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>3317000000</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>3634000000</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>3113000000</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>3952000000</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>4028000000</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>3739000000</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>4036000000</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>3884000000</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>3870000000</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>3884000000</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>4026000000</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>4126000000</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>4223000000</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>3858000000</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>3000000000</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>2995000000</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>2998000000</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>3014000000</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>3018000000</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>3030000000</v>
       </c>
     </row>
